--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -3,14 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\automationtesting\work\FastParkingAdmin\Testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14544" windowHeight="3252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14544" windowHeight="3252" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ParkingOwner" sheetId="1" r:id="rId1"/>
+    <sheet name="EditParkingOwner" sheetId="2" r:id="rId2"/>
+    <sheet name="Parking" sheetId="3" r:id="rId3"/>
+    <sheet name="EditParking" sheetId="4" r:id="rId4"/>
+    <sheet name="PermitCard" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +76,126 @@
   </si>
   <si>
     <t>kat11@yopmail.com</t>
+  </si>
+  <si>
+    <t>SearchEmail</t>
+  </si>
+  <si>
+    <t>Ketan Singh</t>
+  </si>
+  <si>
+    <t>Vasu Rawat</t>
+  </si>
+  <si>
+    <t>joy Dobhal</t>
+  </si>
+  <si>
+    <t>ketan11@yopmail.com</t>
+  </si>
+  <si>
+    <t>vasu101@yopmail.com</t>
+  </si>
+  <si>
+    <t>joyful101@yopmail.com</t>
+  </si>
+  <si>
+    <t>91 India</t>
+  </si>
+  <si>
+    <t>Parking Name</t>
+  </si>
+  <si>
+    <t>Parking Short Name</t>
+  </si>
+  <si>
+    <t>Parking Number</t>
+  </si>
+  <si>
+    <t>Zone Name</t>
+  </si>
+  <si>
+    <t>Opening Hrs</t>
+  </si>
+  <si>
+    <t>Opening Mins</t>
+  </si>
+  <si>
+    <t>Closing Hrs</t>
+  </si>
+  <si>
+    <t>Closing Mins</t>
+  </si>
+  <si>
+    <t>Owner Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Parking Type</t>
+  </si>
+  <si>
+    <t>FACH-0-0001</t>
+  </si>
+  <si>
+    <t>Free zone</t>
+  </si>
+  <si>
+    <t>Gagan Rana</t>
+  </si>
+  <si>
+    <t>mohali</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>yop</t>
+  </si>
+  <si>
+    <t>Picture Location</t>
+  </si>
+  <si>
+    <t>F:\automationtesting\work\FastParkingAdmin\autoIt\egor-myznik-rCZQCbUAQvg-unsplash.jpg</t>
+  </si>
+  <si>
+    <t>Building Floor</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>ParkingToEdit</t>
+  </si>
+  <si>
+    <t>Hills parking</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>Owner Email</t>
+  </si>
+  <si>
+    <t>Vehical Number</t>
+  </si>
+  <si>
+    <t>Permit Card number</t>
+  </si>
+  <si>
+    <t>jerry@yopmail.com</t>
+  </si>
+  <si>
+    <t>developer@gmail.com</t>
+  </si>
+  <si>
+    <t>uk072004</t>
+  </si>
+  <si>
+    <t>uk071995</t>
+  </si>
+  <si>
+    <t>gagan@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -112,10 +240,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,4 +653,415 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>9456326988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>9456326974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>956326954</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1">
+        <v>909</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1">
+        <v>909</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>12345613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>444555666</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>